--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T14:58:01+00:00</t>
+    <t>2025-06-13T10:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -957,9 +957,6 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.250.1.71.4.2.1</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1100,6 +1097,9 @@
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.250.1.71.4.2.1</t>
   </si>
   <si>
     <t>Practitioner.identifier:idNatPs.value</t>
@@ -6353,46 +6353,46 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="T38" t="s" s="2">
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6407,13 +6407,13 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6421,10 +6421,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6450,13 +6450,13 @@
         <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6470,43 +6470,43 @@
         <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6521,13 +6521,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6535,10 +6535,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6561,13 +6561,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6618,7 +6618,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6633,13 +6633,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6673,16 +6673,16 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6732,7 +6732,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6747,13 +6747,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6761,13 +6761,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>208</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>76</v>
@@ -6792,7 +6792,7 @@
         <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>211</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>219</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>220</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>221</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>231</v>
@@ -7248,7 +7248,7 @@
         <v>232</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>234</v>
@@ -7267,7 +7267,7 @@
         <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>76</v>
@@ -7285,10 +7285,10 @@
         <v>151</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>299</v>
@@ -7367,7 +7367,7 @@
         <v>300</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>302</v>
@@ -7383,46 +7383,46 @@
         <v>76</v>
       </c>
       <c r="S47" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="T47" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="T47" t="s" s="2">
+      <c r="U47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7437,13 +7437,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7454,7 +7454,7 @@
         <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7483,10 +7483,10 @@
         <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7500,43 +7500,43 @@
         <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7551,13 +7551,13 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7568,7 +7568,7 @@
         <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7591,13 +7591,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7648,7 +7648,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7663,13 +7663,13 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7680,7 +7680,7 @@
         <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7703,16 +7703,16 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7762,7 +7762,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7777,13 +7777,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -8315,10 +8315,10 @@
         <v>151</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
@@ -8397,7 +8397,7 @@
         <v>300</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>302</v>
@@ -8416,43 +8416,43 @@
         <v>362</v>
       </c>
       <c r="T56" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8467,13 +8467,13 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8484,7 +8484,7 @@
         <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8510,13 +8510,13 @@
         <v>101</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8530,43 +8530,43 @@
         <v>76</v>
       </c>
       <c r="T57" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8581,13 +8581,13 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8598,7 +8598,7 @@
         <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8621,13 +8621,13 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8678,7 +8678,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8693,13 +8693,13 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8710,7 +8710,7 @@
         <v>365</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8733,16 +8733,16 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8792,7 +8792,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8807,13 +8807,13 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -9345,10 +9345,10 @@
         <v>151</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
@@ -9427,7 +9427,7 @@
         <v>300</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>302</v>
@@ -9446,43 +9446,43 @@
         <v>375</v>
       </c>
       <c r="T65" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9497,13 +9497,13 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>
@@ -9514,7 +9514,7 @@
         <v>376</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9540,13 +9540,13 @@
         <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9560,43 +9560,43 @@
         <v>76</v>
       </c>
       <c r="T66" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9611,13 +9611,13 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
@@ -9628,7 +9628,7 @@
         <v>377</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9651,13 +9651,13 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9708,7 +9708,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9723,13 +9723,13 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>76</v>
@@ -9740,7 +9740,7 @@
         <v>378</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9763,16 +9763,16 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9822,7 +9822,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9837,13 +9837,13 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -11363,7 +11363,7 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>466</v>
@@ -11477,7 +11477,7 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>472</v>
@@ -12959,7 +12959,7 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>466</v>
@@ -13073,7 +13073,7 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>472</v>
@@ -14555,7 +14555,7 @@
         <v>76</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>466</v>
@@ -14669,7 +14669,7 @@
         <v>76</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>472</v>
@@ -16151,7 +16151,7 @@
         <v>76</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L124" t="s" s="2">
         <v>466</v>
@@ -16265,7 +16265,7 @@
         <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L125" t="s" s="2">
         <v>472</v>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T10:40:28+00:00</t>
+    <t>2025-06-17T13:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-17T13:53:20+00:00</t>
+    <t>2025-06-18T12:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T12:49:42+00:00</t>
+    <t>2025-06-19T12:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:31:56+00:00</t>
+    <t>2025-06-19T12:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:56:09+00:00</t>
+    <t>2025-06-19T13:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T13:39:18+00:00</t>
+    <t>2025-06-20T10:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:31:38+00:00</t>
+    <t>2025-06-20T12:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:06:52+00:00</t>
+    <t>2025-06-20T16:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:26:05+00:00</t>
+    <t>2025-06-23T15:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T15:53:38+00:00</t>
+    <t>2025-06-25T07:29:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T07:29:13+00:00</t>
+    <t>2025-06-25T08:20:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T08:20:21+00:00</t>
+    <t>2025-07-01T07:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T07:34:24+00:00</t>
+    <t>2025-07-01T14:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T14:16:04+00:00</t>
+    <t>2025-07-01T15:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T15:09:42+00:00</t>
+    <t>2025-07-09T16:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T16:03:26+00:00</t>
+    <t>2025-08-18T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:46:32+00:00</t>
+    <t>2025-08-19T13:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T13:46:05+00:00</t>
+    <t>2025-08-19T14:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T14:52:01+00:00</t>
+    <t>2025-08-22T10:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T10:17:30+00:00</t>
+    <t>2025-08-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T12:56:47+00:00</t>
+    <t>2025-08-22T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:23:20+00:00</t>
+    <t>2025-08-22T14:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T14:29:38+00:00</t>
+    <t>2025-08-22T15:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T15:03:40+00:00</t>
+    <t>2025-08-22T16:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T16:11:41+00:00</t>
+    <t>2025-08-25T06:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T06:59:32+00:00</t>
+    <t>2025-08-25T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T09:39:34+00:00</t>
+    <t>2025-08-25T11:15:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T11:15:03+00:00</t>
+    <t>2025-08-26T14:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:01:05+00:00</t>
+    <t>2025-08-26T14:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:47:20+00:00</t>
+    <t>2025-08-26T15:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T15:19:13+00:00</t>
+    <t>2025-08-28T09:04:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T09:04:45+00:00</t>
+    <t>2025-08-28T13:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:33:26+00:00</t>
+    <t>2025-08-28T13:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:53:19+00:00</t>
+    <t>2025-08-29T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T14:53:04+00:00</t>
+    <t>2025-09-02T14:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:06:24+00:00</t>
+    <t>2025-09-02T14:14:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:14:48+00:00</t>
+    <t>2025-09-02T15:31:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T15:31:32+00:00</t>
+    <t>2025-09-02T16:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T16:40:07+00:00</t>
+    <t>2025-09-03T15:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T15:56:47+00:00</t>
+    <t>2025-09-03T16:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T16:17:34+00:00</t>
+    <t>2025-09-04T08:14:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:14:53+00:00</t>
+    <t>2025-09-04T08:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:29:09+00:00</t>
+    <t>2025-09-04T13:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:01:54+00:00</t>
+    <t>2025-09-04T13:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:30:13+00:00</t>
+    <t>2025-09-04T16:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T16:12:35+00:00</t>
+    <t>2025-09-08T10:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:20:18+00:00</t>
+    <t>2025-09-08T13:03:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:03:11+00:00</t>
+    <t>2025-09-08T13:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:31:50+00:00</t>
+    <t>2025-09-09T08:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
